--- a/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/DECIA/4.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/DECIA/4.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAVORO UTIL\FSE2.0\DECIA\TESTCASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D11BD2F-0070-46EE-934F-F6C5956B4B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F54FE36-101C-4F6C-A261-B225E3678B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4739,15 +4739,6 @@
     <t>subject_application_id: DECIA</t>
   </si>
   <si>
-    <t>2023-09-26T09:20:08.557Z</t>
-  </si>
-  <si>
-    <t>f11747bd535143a9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.cc60f80116bdc26255d83c48b1d64e713e179b4b9386c9790b76d4a0205ac0d9.21fb691434^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Il software Decia non gestisce l'informaizone relativa alle procedure delle prestazioni</t>
   </si>
   <si>
@@ -4757,28 +4748,37 @@
     <t>Il software Decia non ha una sezione dedicata al confronto con i precedenti esami diagnostici. Pertanto, il caso di test 3 non può essere eseguito.</t>
   </si>
   <si>
-    <t>c2f7ed59cdaef2d5</t>
-  </si>
-  <si>
-    <t>2023-09-26T09:41:54.034Z</t>
-  </si>
-  <si>
-    <t>0cf73cdca6130549</t>
-  </si>
-  <si>
-    <t>2023-09-26T09:46:02.948Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.6627db10f26036e0e7acefaef4963c31fdb1c69919cc15c8ce0fb4e73e028491.676db0c32f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ca17797c83a40ef9</t>
-  </si>
-  <si>
-    <t>2023-09-26T09:47:49.420Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.6627db10f26036e0e7acefaef4963c31fdb1c69919cc15c8ce0fb4e73e028491.8d10288bce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-09-27T14:12:49.126Z</t>
+  </si>
+  <si>
+    <t>e4992a3c5bfc0318</t>
+  </si>
+  <si>
+    <t>2023-09-27T14:16:56.938Z</t>
+  </si>
+  <si>
+    <t>7bcca697f41fe607</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.924dcb9f3f6d264ecc8323df1707be460343a8be09ffd7eb035b7a9146bbe197.a42f7370f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-09-27T14:19:14.171Z</t>
+  </si>
+  <si>
+    <t>7314b7b98406bd84</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.924dcb9f3f6d264ecc8323df1707be460343a8be09ffd7eb035b7a9146bbe197.d8bcd46c19^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-09-27T13:47:36.025Z</t>
+  </si>
+  <si>
+    <t>2d0786231c6fc1d1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.bb355b9fbc2500f6135c3e9b283f8eb397957ad0ee20ca4615269d3944e6166b.8bf992fa98^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -7704,10 +7704,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E176" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I381" sqref="I381"/>
+      <selection pane="bottomRight" activeCell="I387" sqref="I387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12916,7 +12916,7 @@
         <v>848</v>
       </c>
       <c r="K154" s="25" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="L154" s="25"/>
       <c r="M154" s="25"/>
@@ -12954,7 +12954,7 @@
         <v>848</v>
       </c>
       <c r="K155" s="25" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="L155" s="25"/>
       <c r="M155" s="25"/>
@@ -12992,7 +12992,7 @@
         <v>848</v>
       </c>
       <c r="K156" s="25" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="L156" s="25"/>
       <c r="M156" s="25"/>
@@ -13030,7 +13030,7 @@
         <v>848</v>
       </c>
       <c r="K157" s="25" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="L157" s="25"/>
       <c r="M157" s="25"/>
@@ -13099,13 +13099,13 @@
         <v>348</v>
       </c>
       <c r="F159" s="23">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="G159" s="24" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="H159" s="24" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="I159" s="24" t="s">
         <v>865</v>
@@ -13191,16 +13191,16 @@
         <v>352</v>
       </c>
       <c r="F161" s="23">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="G161" s="24" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="H161" s="24" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="I161" s="24" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="J161" s="25" t="s">
         <v>139</v>
@@ -13245,16 +13245,16 @@
         <v>354</v>
       </c>
       <c r="F162" s="23">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="G162" s="24" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="H162" s="24" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="I162" s="24" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="J162" s="25" t="s">
         <v>139</v>
@@ -20767,16 +20767,16 @@
         <v>790</v>
       </c>
       <c r="F381" s="23">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="G381" s="24" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
       <c r="H381" s="24" t="s">
-        <v>874</v>
+        <v>885</v>
       </c>
       <c r="I381" s="24" t="s">
-        <v>875</v>
+        <v>886</v>
       </c>
       <c r="J381" s="25" t="s">
         <v>139</v>

--- a/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/DECIA/4.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/TESI_SPA/DECIA/4.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAVORO UTIL\FSE2.0\DECIA\TESTCASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F54FE36-101C-4F6C-A261-B225E3678B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DAB40C-8D9E-4A0C-BEAF-5AB8FC893340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4748,37 +4748,37 @@
     <t>Il software Decia non ha una sezione dedicata al confronto con i precedenti esami diagnostici. Pertanto, il caso di test 3 non può essere eseguito.</t>
   </si>
   <si>
-    <t>2023-09-27T14:12:49.126Z</t>
-  </si>
-  <si>
-    <t>e4992a3c5bfc0318</t>
-  </si>
-  <si>
-    <t>2023-09-27T14:16:56.938Z</t>
-  </si>
-  <si>
-    <t>7bcca697f41fe607</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.924dcb9f3f6d264ecc8323df1707be460343a8be09ffd7eb035b7a9146bbe197.a42f7370f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-09-27T14:19:14.171Z</t>
-  </si>
-  <si>
-    <t>7314b7b98406bd84</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.924dcb9f3f6d264ecc8323df1707be460343a8be09ffd7eb035b7a9146bbe197.d8bcd46c19^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-09-27T13:47:36.025Z</t>
-  </si>
-  <si>
-    <t>2d0786231c6fc1d1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.bb355b9fbc2500f6135c3e9b283f8eb397957ad0ee20ca4615269d3944e6166b.8bf992fa98^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-10-05T12:42:38.534Z</t>
+  </si>
+  <si>
+    <t>2a4f2f191d588f43</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.66721b048df5ba99d692bac2658d86d2d271abce119aa334bb7fdc731a5fda9a.aa4b42b4c6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-10-05T12:27:42.295Z</t>
+  </si>
+  <si>
+    <t>057c4821e5ec5e36</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.924dcb9f3f6d264ecc8323df1707be460343a8be09ffd7eb035b7a9146bbe197.8b948b9cf8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-10-05T12:33:52.319Z</t>
+  </si>
+  <si>
+    <t>062f7a37bc8b7bf1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.50504.4.4.18.924dcb9f3f6d264ecc8323df1707be460343a8be09ffd7eb035b7a9146bbe197.809892a2e7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-10-05T12:37:01.487Z</t>
+  </si>
+  <si>
+    <t>117ec35cc7d5d70a</t>
   </si>
 </sst>
 </file>
@@ -7704,10 +7704,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D176" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I387" sqref="I387"/>
+      <selection pane="bottomRight" activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13099,13 +13099,13 @@
         <v>348</v>
       </c>
       <c r="F159" s="23">
-        <v>45196</v>
+        <v>45204</v>
       </c>
       <c r="G159" s="24" t="s">
-        <v>876</v>
+        <v>885</v>
       </c>
       <c r="H159" s="24" t="s">
-        <v>877</v>
+        <v>886</v>
       </c>
       <c r="I159" s="24" t="s">
         <v>865</v>
@@ -13191,16 +13191,16 @@
         <v>352</v>
       </c>
       <c r="F161" s="23">
-        <v>45196</v>
+        <v>45204</v>
       </c>
       <c r="G161" s="24" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="H161" s="24" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="I161" s="24" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="J161" s="25" t="s">
         <v>139</v>
@@ -13245,16 +13245,16 @@
         <v>354</v>
       </c>
       <c r="F162" s="23">
-        <v>45196</v>
+        <v>45204</v>
       </c>
       <c r="G162" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="H162" s="24" t="s">
+        <v>880</v>
+      </c>
+      <c r="I162" s="24" t="s">
         <v>881</v>
-      </c>
-      <c r="H162" s="24" t="s">
-        <v>882</v>
-      </c>
-      <c r="I162" s="24" t="s">
-        <v>883</v>
       </c>
       <c r="J162" s="25" t="s">
         <v>139</v>
@@ -20767,16 +20767,16 @@
         <v>790</v>
       </c>
       <c r="F381" s="23">
-        <v>45196</v>
+        <v>45204</v>
       </c>
       <c r="G381" s="24" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="H381" s="24" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="I381" s="24" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="J381" s="25" t="s">
         <v>139</v>
